--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tnfrsf14-Cd160.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tnfrsf14-Cd160.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.3716224512646</v>
+        <v>3.461605</v>
       </c>
       <c r="H2">
-        <v>3.3716224512646</v>
+        <v>10.384815</v>
       </c>
       <c r="I2">
-        <v>0.07310175999984973</v>
+        <v>0.06616740110392129</v>
       </c>
       <c r="J2">
-        <v>0.07310175999984973</v>
+        <v>0.06733956725325306</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.37005215920161</v>
+        <v>1.505264</v>
       </c>
       <c r="N2">
-        <v>1.37005215920161</v>
+        <v>4.515792</v>
       </c>
       <c r="O2">
-        <v>0.2616188900769207</v>
+        <v>0.2261905736847353</v>
       </c>
       <c r="P2">
-        <v>0.2616188900769207</v>
+        <v>0.2333382679726151</v>
       </c>
       <c r="Q2">
-        <v>4.61929861936769</v>
+        <v>5.210629388720001</v>
       </c>
       <c r="R2">
-        <v>4.61929861936769</v>
+        <v>46.89566449848</v>
       </c>
       <c r="S2">
-        <v>0.01912480131383013</v>
+        <v>0.01496644241492394</v>
       </c>
       <c r="T2">
-        <v>0.01912480131383013</v>
+        <v>0.0157128979888995</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.3716224512646</v>
+        <v>3.461605</v>
       </c>
       <c r="H3">
-        <v>3.3716224512646</v>
+        <v>10.384815</v>
       </c>
       <c r="I3">
-        <v>0.07310175999984973</v>
+        <v>0.06616740110392129</v>
       </c>
       <c r="J3">
-        <v>0.07310175999984973</v>
+        <v>0.06733956725325306</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.56954239608649</v>
+        <v>1.629958</v>
       </c>
       <c r="N3">
-        <v>1.56954239608649</v>
+        <v>4.889874</v>
       </c>
       <c r="O3">
-        <v>0.2997126327161921</v>
+        <v>0.2449278897934341</v>
       </c>
       <c r="P3">
-        <v>0.2997126327161921</v>
+        <v>0.2526676892479378</v>
       </c>
       <c r="Q3">
-        <v>5.291904380856845</v>
+        <v>5.64227076259</v>
       </c>
       <c r="R3">
-        <v>5.291904380856845</v>
+        <v>50.78043686330999</v>
       </c>
       <c r="S3">
-        <v>0.02190952094574219</v>
+        <v>0.01620624192549918</v>
       </c>
       <c r="T3">
-        <v>0.02190952094574219</v>
+        <v>0.01701453285283555</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.3716224512646</v>
+        <v>3.461605</v>
       </c>
       <c r="H4">
-        <v>3.3716224512646</v>
+        <v>10.384815</v>
       </c>
       <c r="I4">
-        <v>0.07310175999984973</v>
+        <v>0.06616740110392129</v>
       </c>
       <c r="J4">
-        <v>0.07310175999984973</v>
+        <v>0.06733956725325306</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.7167984277959</v>
+        <v>1.823592666666666</v>
       </c>
       <c r="N4">
-        <v>1.7167984277959</v>
+        <v>5.470777999999999</v>
       </c>
       <c r="O4">
-        <v>0.3278319705926405</v>
+        <v>0.2740246703838061</v>
       </c>
       <c r="P4">
-        <v>0.3278319705926405</v>
+        <v>0.2826839373874366</v>
       </c>
       <c r="Q4">
-        <v>5.788396123452424</v>
+        <v>6.312557492896666</v>
       </c>
       <c r="R4">
-        <v>5.788396123452424</v>
+        <v>56.81301743606999</v>
       </c>
       <c r="S4">
-        <v>0.023965094034541</v>
+        <v>0.01813150027765512</v>
       </c>
       <c r="T4">
-        <v>0.023965094034541</v>
+        <v>0.01903581401311567</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.3716224512646</v>
+        <v>3.461605</v>
       </c>
       <c r="H5">
-        <v>3.3716224512646</v>
+        <v>10.384815</v>
       </c>
       <c r="I5">
-        <v>0.07310175999984973</v>
+        <v>0.06616740110392129</v>
       </c>
       <c r="J5">
-        <v>0.07310175999984973</v>
+        <v>0.06733956725325306</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.58043131044767</v>
+        <v>1.084473333333333</v>
       </c>
       <c r="N5">
-        <v>0.58043131044767</v>
+        <v>3.25342</v>
       </c>
       <c r="O5">
-        <v>0.1108365066142466</v>
+        <v>0.1629598830586952</v>
       </c>
       <c r="P5">
-        <v>0.1108365066142466</v>
+        <v>0.1681094673509022</v>
       </c>
       <c r="Q5">
-        <v>1.956995237722297</v>
+        <v>3.754018313033333</v>
       </c>
       <c r="R5">
-        <v>1.956995237722297</v>
+        <v>33.7861648173</v>
       </c>
       <c r="S5">
-        <v>0.00810234370573641</v>
+        <v>0.01078263194619279</v>
       </c>
       <c r="T5">
-        <v>0.00810234370573641</v>
+        <v>0.01132041878258463</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.88693519149571</v>
+        <v>3.461605</v>
       </c>
       <c r="H6">
-        <v>3.88693519149571</v>
+        <v>10.384815</v>
       </c>
       <c r="I6">
-        <v>0.08427450214572983</v>
+        <v>0.06616740110392129</v>
       </c>
       <c r="J6">
-        <v>0.08427450214572983</v>
+        <v>0.06733956725325306</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.37005215920161</v>
+        <v>0.6115605000000001</v>
       </c>
       <c r="N6">
-        <v>1.37005215920161</v>
+        <v>1.223121</v>
       </c>
       <c r="O6">
-        <v>0.2616188900769207</v>
+        <v>0.09189698307932931</v>
       </c>
       <c r="P6">
-        <v>0.2616188900769207</v>
+        <v>0.0632006380411084</v>
       </c>
       <c r="Q6">
-        <v>5.325303951785421</v>
+        <v>2.1169808846025</v>
       </c>
       <c r="R6">
-        <v>5.325303951785421</v>
+        <v>12.701885307615</v>
       </c>
       <c r="S6">
-        <v>0.02204780171315091</v>
+        <v>0.00608058453965025</v>
       </c>
       <c r="T6">
-        <v>0.02204780171315091</v>
+        <v>0.004255903615817722</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.88693519149571</v>
+        <v>3.998462333333334</v>
       </c>
       <c r="H7">
-        <v>3.88693519149571</v>
+        <v>11.995387</v>
       </c>
       <c r="I7">
-        <v>0.08427450214572983</v>
+        <v>0.07642924626252497</v>
       </c>
       <c r="J7">
-        <v>0.08427450214572983</v>
+        <v>0.07778320264879995</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.56954239608649</v>
+        <v>1.505264</v>
       </c>
       <c r="N7">
-        <v>1.56954239608649</v>
+        <v>4.515792</v>
       </c>
       <c r="O7">
-        <v>0.2997126327161921</v>
+        <v>0.2261905736847353</v>
       </c>
       <c r="P7">
-        <v>0.2997126327161921</v>
+        <v>0.2333382679726151</v>
       </c>
       <c r="Q7">
-        <v>6.100709573893077</v>
+        <v>6.018741405722668</v>
       </c>
       <c r="R7">
-        <v>6.100709573893077</v>
+        <v>54.168672651504</v>
       </c>
       <c r="S7">
-        <v>0.02525813290894307</v>
+        <v>0.01728757505841243</v>
       </c>
       <c r="T7">
-        <v>0.02525813290894307</v>
+        <v>0.01814979778343391</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.88693519149571</v>
+        <v>3.998462333333334</v>
       </c>
       <c r="H8">
-        <v>3.88693519149571</v>
+        <v>11.995387</v>
       </c>
       <c r="I8">
-        <v>0.08427450214572983</v>
+        <v>0.07642924626252497</v>
       </c>
       <c r="J8">
-        <v>0.08427450214572983</v>
+        <v>0.07778320264879995</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.7167984277959</v>
+        <v>1.629958</v>
       </c>
       <c r="N8">
-        <v>1.7167984277959</v>
+        <v>4.889874</v>
       </c>
       <c r="O8">
-        <v>0.3278319705926405</v>
+        <v>0.2449278897934341</v>
       </c>
       <c r="P8">
-        <v>0.3278319705926405</v>
+        <v>0.2526676892479378</v>
       </c>
       <c r="Q8">
-        <v>6.673084225704391</v>
+        <v>6.517325667915334</v>
       </c>
       <c r="R8">
-        <v>6.673084225704391</v>
+        <v>58.655931011238</v>
       </c>
       <c r="S8">
-        <v>0.02762787610914832</v>
+        <v>0.01871965400558295</v>
       </c>
       <c r="T8">
-        <v>0.02762787610914832</v>
+        <v>0.01965330207557636</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.88693519149571</v>
+        <v>3.998462333333334</v>
       </c>
       <c r="H9">
-        <v>3.88693519149571</v>
+        <v>11.995387</v>
       </c>
       <c r="I9">
-        <v>0.08427450214572983</v>
+        <v>0.07642924626252497</v>
       </c>
       <c r="J9">
-        <v>0.08427450214572983</v>
+        <v>0.07778320264879995</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.58043131044767</v>
+        <v>1.823592666666666</v>
       </c>
       <c r="N9">
-        <v>0.58043131044767</v>
+        <v>5.470777999999999</v>
       </c>
       <c r="O9">
-        <v>0.1108365066142466</v>
+        <v>0.2740246703838061</v>
       </c>
       <c r="P9">
-        <v>0.1108365066142466</v>
+        <v>0.2826839373874366</v>
       </c>
       <c r="Q9">
-        <v>2.25609888682502</v>
+        <v>7.291566589009555</v>
       </c>
       <c r="R9">
-        <v>2.25609888682502</v>
+        <v>65.62409930108599</v>
       </c>
       <c r="S9">
-        <v>0.009340691414487521</v>
+        <v>0.02094349901477115</v>
       </c>
       <c r="T9">
-        <v>0.009340691414487521</v>
+        <v>0.02198806198736766</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.7910337214182</v>
+        <v>3.998462333333334</v>
       </c>
       <c r="H10">
-        <v>15.7910337214182</v>
+        <v>11.995387</v>
       </c>
       <c r="I10">
-        <v>0.3423729595879522</v>
+        <v>0.07642924626252497</v>
       </c>
       <c r="J10">
-        <v>0.3423729595879522</v>
+        <v>0.07778320264879995</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.37005215920161</v>
+        <v>1.084473333333333</v>
       </c>
       <c r="N10">
-        <v>1.37005215920161</v>
+        <v>3.25342</v>
       </c>
       <c r="O10">
-        <v>0.2616188900769207</v>
+        <v>0.1629598830586952</v>
       </c>
       <c r="P10">
-        <v>0.2616188900769207</v>
+        <v>0.1681094673509022</v>
       </c>
       <c r="Q10">
-        <v>21.63453984605444</v>
+        <v>4.336225774837778</v>
       </c>
       <c r="R10">
-        <v>21.63453984605444</v>
+        <v>39.02603197354</v>
       </c>
       <c r="S10">
-        <v>0.08957123367975048</v>
+        <v>0.01245490103320528</v>
       </c>
       <c r="T10">
-        <v>0.08957123367975048</v>
+        <v>0.01307609276613705</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.7910337214182</v>
+        <v>3.998462333333334</v>
       </c>
       <c r="H11">
-        <v>15.7910337214182</v>
+        <v>11.995387</v>
       </c>
       <c r="I11">
-        <v>0.3423729595879522</v>
+        <v>0.07642924626252497</v>
       </c>
       <c r="J11">
-        <v>0.3423729595879522</v>
+        <v>0.07778320264879995</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.56954239608649</v>
+        <v>0.6115605000000001</v>
       </c>
       <c r="N11">
-        <v>1.56954239608649</v>
+        <v>1.223121</v>
       </c>
       <c r="O11">
-        <v>0.2997126327161921</v>
+        <v>0.09189698307932931</v>
       </c>
       <c r="P11">
-        <v>0.2997126327161921</v>
+        <v>0.0632006380411084</v>
       </c>
       <c r="Q11">
-        <v>24.78469690379729</v>
+        <v>2.445301623804501</v>
       </c>
       <c r="R11">
-        <v>24.78469690379729</v>
+        <v>14.671809742827</v>
       </c>
       <c r="S11">
-        <v>0.1026135010889396</v>
+        <v>0.00702361715055315</v>
       </c>
       <c r="T11">
-        <v>0.1026135010889396</v>
+        <v>0.00491594803628499</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.7910337214182</v>
+        <v>21.74728766666667</v>
       </c>
       <c r="H12">
-        <v>15.7910337214182</v>
+        <v>65.241863</v>
       </c>
       <c r="I12">
-        <v>0.3423729595879522</v>
+        <v>0.4156920000874432</v>
       </c>
       <c r="J12">
-        <v>0.3423729595879522</v>
+        <v>0.4230560507063459</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.7167984277959</v>
+        <v>1.505264</v>
       </c>
       <c r="N12">
-        <v>1.7167984277959</v>
+        <v>4.515792</v>
       </c>
       <c r="O12">
-        <v>0.3278319705926405</v>
+        <v>0.2261905736847353</v>
       </c>
       <c r="P12">
-        <v>0.3278319705926405</v>
+        <v>0.2333382679726151</v>
       </c>
       <c r="Q12">
-        <v>27.11002186620281</v>
+        <v>32.73540922227733</v>
       </c>
       <c r="R12">
-        <v>27.11002186620281</v>
+        <v>294.618683000496</v>
       </c>
       <c r="S12">
-        <v>0.1122408020193529</v>
+        <v>0.09402561197593381</v>
       </c>
       <c r="T12">
-        <v>0.1122408020193529</v>
+        <v>0.0987151661271536</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.7910337214182</v>
+        <v>21.74728766666667</v>
       </c>
       <c r="H13">
-        <v>15.7910337214182</v>
+        <v>65.241863</v>
       </c>
       <c r="I13">
-        <v>0.3423729595879522</v>
+        <v>0.4156920000874432</v>
       </c>
       <c r="J13">
-        <v>0.3423729595879522</v>
+        <v>0.4230560507063459</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.58043131044767</v>
+        <v>1.629958</v>
       </c>
       <c r="N13">
-        <v>0.58043131044767</v>
+        <v>4.889874</v>
       </c>
       <c r="O13">
-        <v>0.1108365066142466</v>
+        <v>0.2449278897934341</v>
       </c>
       <c r="P13">
-        <v>0.1108365066142466</v>
+        <v>0.2526676892479378</v>
       </c>
       <c r="Q13">
-        <v>9.165610396246114</v>
+        <v>35.44716551058467</v>
       </c>
       <c r="R13">
-        <v>9.165610396246114</v>
+        <v>319.024489595262</v>
       </c>
       <c r="S13">
-        <v>0.03794742279990924</v>
+        <v>0.1018145643854295</v>
       </c>
       <c r="T13">
-        <v>0.03794742279990924</v>
+        <v>0.1068925947543308</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.3447292494455</v>
+        <v>21.74728766666667</v>
       </c>
       <c r="H14">
-        <v>20.3447292494455</v>
+        <v>65.241863</v>
       </c>
       <c r="I14">
-        <v>0.4411038116966709</v>
+        <v>0.4156920000874432</v>
       </c>
       <c r="J14">
-        <v>0.4411038116966709</v>
+        <v>0.4230560507063459</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.37005215920161</v>
+        <v>1.823592666666666</v>
       </c>
       <c r="N14">
-        <v>1.37005215920161</v>
+        <v>5.470777999999999</v>
       </c>
       <c r="O14">
-        <v>0.2616188900769207</v>
+        <v>0.2740246703838061</v>
       </c>
       <c r="P14">
-        <v>0.2616188900769207</v>
+        <v>0.2826839373874366</v>
       </c>
       <c r="Q14">
-        <v>27.87334023657496</v>
+        <v>39.65819430882377</v>
       </c>
       <c r="R14">
-        <v>27.87334023657496</v>
+        <v>356.9237487794139</v>
       </c>
       <c r="S14">
-        <v>0.1154010896247821</v>
+        <v>0.1139098633051467</v>
       </c>
       <c r="T14">
-        <v>0.1154010896247821</v>
+        <v>0.1195911501492489</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.3447292494455</v>
+        <v>21.74728766666667</v>
       </c>
       <c r="H15">
-        <v>20.3447292494455</v>
+        <v>65.241863</v>
       </c>
       <c r="I15">
-        <v>0.4411038116966709</v>
+        <v>0.4156920000874432</v>
       </c>
       <c r="J15">
-        <v>0.4411038116966709</v>
+        <v>0.4230560507063459</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>1.56954239608649</v>
+        <v>1.084473333333333</v>
       </c>
       <c r="N15">
-        <v>1.56954239608649</v>
+        <v>3.25342</v>
       </c>
       <c r="O15">
-        <v>0.2997126327161921</v>
+        <v>0.1629598830586952</v>
       </c>
       <c r="P15">
-        <v>0.2997126327161921</v>
+        <v>0.1681094673509022</v>
       </c>
       <c r="Q15">
-        <v>31.93191509390559</v>
+        <v>23.58435354682888</v>
       </c>
       <c r="R15">
-        <v>31.93191509390559</v>
+        <v>212.25918192146</v>
       </c>
       <c r="S15">
-        <v>0.1322043847047567</v>
+        <v>0.06774111972268486</v>
       </c>
       <c r="T15">
-        <v>0.1322043847047567</v>
+        <v>0.07111972734382009</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.3447292494455</v>
+        <v>21.74728766666667</v>
       </c>
       <c r="H16">
-        <v>20.3447292494455</v>
+        <v>65.241863</v>
       </c>
       <c r="I16">
-        <v>0.4411038116966709</v>
+        <v>0.4156920000874432</v>
       </c>
       <c r="J16">
-        <v>0.4411038116966709</v>
+        <v>0.4230560507063459</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.7167984277959</v>
+        <v>0.6115605000000001</v>
       </c>
       <c r="N16">
-        <v>1.7167984277959</v>
+        <v>1.223121</v>
       </c>
       <c r="O16">
-        <v>0.3278319705926405</v>
+        <v>0.09189698307932931</v>
       </c>
       <c r="P16">
-        <v>0.3278319705926405</v>
+        <v>0.0632006380411084</v>
       </c>
       <c r="Q16">
-        <v>34.9277991893813</v>
+        <v>13.2997821190705</v>
       </c>
       <c r="R16">
-        <v>34.9277991893813</v>
+        <v>79.798692714423</v>
       </c>
       <c r="S16">
-        <v>0.1446079318244446</v>
+        <v>0.03820084069824833</v>
       </c>
       <c r="T16">
-        <v>0.1446079318244446</v>
+        <v>0.02673741233179257</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.3447292494455</v>
+        <v>20.37655766666667</v>
       </c>
       <c r="H17">
-        <v>20.3447292494455</v>
+        <v>61.129673</v>
       </c>
       <c r="I17">
-        <v>0.4411038116966709</v>
+        <v>0.3894909627896643</v>
       </c>
       <c r="J17">
-        <v>0.4411038116966709</v>
+        <v>0.3963908578200832</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.58043131044767</v>
+        <v>1.505264</v>
       </c>
       <c r="N17">
-        <v>0.58043131044767</v>
+        <v>4.515792</v>
       </c>
       <c r="O17">
-        <v>0.1108365066142466</v>
+        <v>0.2261905736847353</v>
       </c>
       <c r="P17">
-        <v>0.1108365066142466</v>
+        <v>0.2333382679726151</v>
       </c>
       <c r="Q17">
-        <v>11.80871785895869</v>
+        <v>30.67209869955734</v>
       </c>
       <c r="R17">
-        <v>11.80871785895869</v>
+        <v>276.048888296016</v>
       </c>
       <c r="S17">
-        <v>0.04889040554268743</v>
+        <v>0.08809918431841406</v>
       </c>
       <c r="T17">
-        <v>0.04889040554268743</v>
+        <v>0.09249315620391735</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.72799506347501</v>
+        <v>20.37655766666667</v>
       </c>
       <c r="H18">
-        <v>2.72799506347501</v>
+        <v>61.129673</v>
       </c>
       <c r="I18">
-        <v>0.05914696656979722</v>
+        <v>0.3894909627896643</v>
       </c>
       <c r="J18">
-        <v>0.05914696656979722</v>
+        <v>0.3963908578200832</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.37005215920161</v>
+        <v>1.629958</v>
       </c>
       <c r="N18">
-        <v>1.37005215920161</v>
+        <v>4.889874</v>
       </c>
       <c r="O18">
-        <v>0.2616188900769207</v>
+        <v>0.2449278897934341</v>
       </c>
       <c r="P18">
-        <v>0.2616188900769207</v>
+        <v>0.2526676892479378</v>
       </c>
       <c r="Q18">
-        <v>3.737495527005271</v>
+        <v>33.21293318124467</v>
       </c>
       <c r="R18">
-        <v>3.737495527005271</v>
+        <v>298.916398631202</v>
       </c>
       <c r="S18">
-        <v>0.01547396374540708</v>
+        <v>0.09539719960968543</v>
       </c>
       <c r="T18">
-        <v>0.01547396374540708</v>
+        <v>0.1001551620844083</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.72799506347501</v>
+        <v>20.37655766666667</v>
       </c>
       <c r="H19">
-        <v>2.72799506347501</v>
+        <v>61.129673</v>
       </c>
       <c r="I19">
-        <v>0.05914696656979722</v>
+        <v>0.3894909627896643</v>
       </c>
       <c r="J19">
-        <v>0.05914696656979722</v>
+        <v>0.3963908578200832</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.56954239608649</v>
+        <v>1.823592666666666</v>
       </c>
       <c r="N19">
-        <v>1.56954239608649</v>
+        <v>5.470777999999999</v>
       </c>
       <c r="O19">
-        <v>0.2997126327161921</v>
+        <v>0.2740246703838061</v>
       </c>
       <c r="P19">
-        <v>0.2997126327161921</v>
+        <v>0.2826839373874366</v>
       </c>
       <c r="Q19">
-        <v>4.281703908438684</v>
+        <v>37.15854113284377</v>
       </c>
       <c r="R19">
-        <v>4.281703908438684</v>
+        <v>334.4268701955939</v>
       </c>
       <c r="S19">
-        <v>0.01772709306781053</v>
+        <v>0.106730132695909</v>
       </c>
       <c r="T19">
-        <v>0.01772709306781053</v>
+        <v>0.1120533284329647</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,60 +1647,60 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.72799506347501</v>
+        <v>20.37655766666667</v>
       </c>
       <c r="H20">
-        <v>2.72799506347501</v>
+        <v>61.129673</v>
       </c>
       <c r="I20">
-        <v>0.05914696656979722</v>
+        <v>0.3894909627896643</v>
       </c>
       <c r="J20">
-        <v>0.05914696656979722</v>
+        <v>0.3963908578200832</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>1.7167984277959</v>
+        <v>1.084473333333333</v>
       </c>
       <c r="N20">
-        <v>1.7167984277959</v>
+        <v>3.25342</v>
       </c>
       <c r="O20">
-        <v>0.3278319705926405</v>
+        <v>0.1629598830586952</v>
       </c>
       <c r="P20">
-        <v>0.3278319705926405</v>
+        <v>0.1681094673509022</v>
       </c>
       <c r="Q20">
-        <v>4.683417636008874</v>
+        <v>22.09783341462889</v>
       </c>
       <c r="R20">
-        <v>4.683417636008874</v>
+        <v>198.88050073166</v>
       </c>
       <c r="S20">
-        <v>0.01939026660515365</v>
+        <v>0.0634714017486223</v>
       </c>
       <c r="T20">
-        <v>0.01939026660515365</v>
+        <v>0.0666370559709014</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.72799506347501</v>
+        <v>20.37655766666667</v>
       </c>
       <c r="H21">
-        <v>2.72799506347501</v>
+        <v>61.129673</v>
       </c>
       <c r="I21">
-        <v>0.05914696656979722</v>
+        <v>0.3894909627896643</v>
       </c>
       <c r="J21">
-        <v>0.05914696656979722</v>
+        <v>0.3963908578200832</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.58043131044767</v>
+        <v>0.6115605000000001</v>
       </c>
       <c r="N21">
-        <v>0.58043131044767</v>
+        <v>1.223121</v>
       </c>
       <c r="O21">
-        <v>0.1108365066142466</v>
+        <v>0.09189698307932931</v>
       </c>
       <c r="P21">
-        <v>0.1108365066142466</v>
+        <v>0.0632006380411084</v>
       </c>
       <c r="Q21">
-        <v>1.583413749587575</v>
+        <v>12.4614977949055</v>
       </c>
       <c r="R21">
-        <v>1.583413749587575</v>
+        <v>74.768986769433</v>
       </c>
       <c r="S21">
-        <v>0.00655564315142595</v>
+        <v>0.03579304441703347</v>
       </c>
       <c r="T21">
-        <v>0.00655564315142595</v>
+        <v>0.02505215512789154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.731955</v>
+      </c>
+      <c r="H22">
+        <v>5.46391</v>
+      </c>
+      <c r="I22">
+        <v>0.0522203897564463</v>
+      </c>
+      <c r="J22">
+        <v>0.03543032157151783</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.505264</v>
+      </c>
+      <c r="N22">
+        <v>4.515792</v>
+      </c>
+      <c r="O22">
+        <v>0.2261905736847353</v>
+      </c>
+      <c r="P22">
+        <v>0.2333382679726151</v>
+      </c>
+      <c r="Q22">
+        <v>4.112313511120001</v>
+      </c>
+      <c r="R22">
+        <v>24.67388106672</v>
+      </c>
+      <c r="S22">
+        <v>0.01181175991705106</v>
+      </c>
+      <c r="T22">
+        <v>0.008267249869210755</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.731955</v>
+      </c>
+      <c r="H23">
+        <v>5.46391</v>
+      </c>
+      <c r="I23">
+        <v>0.0522203897564463</v>
+      </c>
+      <c r="J23">
+        <v>0.03543032157151783</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.629958</v>
+      </c>
+      <c r="N23">
+        <v>4.889874</v>
+      </c>
+      <c r="O23">
+        <v>0.2449278897934341</v>
+      </c>
+      <c r="P23">
+        <v>0.2526676892479378</v>
+      </c>
+      <c r="Q23">
+        <v>4.45297190789</v>
+      </c>
+      <c r="R23">
+        <v>26.71783144734</v>
+      </c>
+      <c r="S23">
+        <v>0.01279022986723705</v>
+      </c>
+      <c r="T23">
+        <v>0.008952097480786774</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.731955</v>
+      </c>
+      <c r="H24">
+        <v>5.46391</v>
+      </c>
+      <c r="I24">
+        <v>0.0522203897564463</v>
+      </c>
+      <c r="J24">
+        <v>0.03543032157151783</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.823592666666666</v>
+      </c>
+      <c r="N24">
+        <v>5.470777999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.2740246703838061</v>
+      </c>
+      <c r="P24">
+        <v>0.2826839373874366</v>
+      </c>
+      <c r="Q24">
+        <v>4.981973103663333</v>
+      </c>
+      <c r="R24">
+        <v>29.89183862198</v>
+      </c>
+      <c r="S24">
+        <v>0.01430967509032408</v>
+      </c>
+      <c r="T24">
+        <v>0.01001558280473969</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.731955</v>
+      </c>
+      <c r="H25">
+        <v>5.46391</v>
+      </c>
+      <c r="I25">
+        <v>0.0522203897564463</v>
+      </c>
+      <c r="J25">
+        <v>0.03543032157151783</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>1.084473333333333</v>
+      </c>
+      <c r="N25">
+        <v>3.25342</v>
+      </c>
+      <c r="O25">
+        <v>0.1629598830586952</v>
+      </c>
+      <c r="P25">
+        <v>0.1681094673509022</v>
+      </c>
+      <c r="Q25">
+        <v>2.962732345366666</v>
+      </c>
+      <c r="R25">
+        <v>17.7763940722</v>
+      </c>
+      <c r="S25">
+        <v>0.008509828607989973</v>
+      </c>
+      <c r="T25">
+        <v>0.005956172487459044</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.731955</v>
+      </c>
+      <c r="H26">
+        <v>5.46391</v>
+      </c>
+      <c r="I26">
+        <v>0.0522203897564463</v>
+      </c>
+      <c r="J26">
+        <v>0.03543032157151783</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.6115605000000001</v>
+      </c>
+      <c r="N26">
+        <v>1.223121</v>
+      </c>
+      <c r="O26">
+        <v>0.09189698307932931</v>
+      </c>
+      <c r="P26">
+        <v>0.0632006380411084</v>
+      </c>
+      <c r="Q26">
+        <v>1.6707557657775</v>
+      </c>
+      <c r="R26">
+        <v>6.683023063110001</v>
+      </c>
+      <c r="S26">
+        <v>0.004798896273844127</v>
+      </c>
+      <c r="T26">
+        <v>0.002239218929321574</v>
       </c>
     </row>
   </sheetData>
